--- a/teste-de-erros-hibrido-android.xlsx
+++ b/teste-de-erros-hibrido-android.xlsx
@@ -247,44 +247,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,16 +578,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="4" t="s">
         <v>13</v>
       </c>
@@ -596,446 +596,495 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="17" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="17"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="19" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="17" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="17"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="18" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="18"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="18" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="18"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="19" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="19"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="18"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="19" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="19"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:11" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="19" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="19"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:11" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="18" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="18"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="I22:J22"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="B30:H30"/>
@@ -1052,55 +1101,6 @@
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="B25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
